--- a/classfiers/nano/svm/smote/nano-svm-default-results.xlsx
+++ b/classfiers/nano/svm/smote/nano-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9461883408071748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9061032863849765</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9301204819277108</v>
+        <v>0.9678899082568807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9891115078577882</v>
+        <v>0.9964072384227116</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9639175257731959</v>
+        <v>0.9141630901287554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8779342723004695</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9189189189189189</v>
+        <v>0.9551569506726457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9867971522405166</v>
+        <v>0.9938724679847473</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.847457627118644</v>
+        <v>0.7830882352941176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9389671361502347</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.89086859688196</v>
+        <v>0.8783505154639175</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9478498534241442</v>
+        <v>0.9954374132116643</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8622222222222222</v>
+        <v>0.8379446640316206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9107981220657277</v>
+        <v>0.9953051643192489</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8858447488584476</v>
+        <v>0.9098712446351931</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9524785646586877</v>
+        <v>0.9717428199872159</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7044673539518901</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9624413145539906</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8134920634920635</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9546386299014745</v>
+        <v>0.9792148824086931</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8667020547240816</v>
+        <v>0.8780950478705154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.91924882629108</v>
+        <v>0.9943661971830986</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8878489620158201</v>
+        <v>0.9314429129949164</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9661751416165222</v>
+        <v>0.9873349644030064</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/smote/nano-svm-default-results.xlsx
+++ b/classfiers/nano/svm/smote/nano-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9461883408071748</v>
+        <v>0.9543147208121827</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9906103286384976</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9678899082568807</v>
+        <v>0.9616368286445013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9964072384227116</v>
+        <v>0.9949516420448506</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9068627450980392</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9585492227979274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9551569506726457</v>
+        <v>0.9319899244332494</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9938724679847473</v>
+        <v>0.9888360664494418</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7830882352941176</v>
+        <v>0.7622950819672131</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9637305699481865</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8783505154639175</v>
+        <v>0.8512585812356979</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9954374132116643</v>
+        <v>0.9719566262485978</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8379446640316206</v>
+        <v>0.8796296296296297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9098712446351931</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9717428199872159</v>
+        <v>0.9722504139736126</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7211895910780669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.838012958963283</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9792148824086931</v>
+        <v>0.9781261684739063</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8780950478705154</v>
+        <v>0.8448583537170263</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9943661971830986</v>
+        <v>0.9741466801987073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9314429129949164</v>
+        <v>0.901945512313883</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9873349644030064</v>
+        <v>0.9812241834380819</v>
       </c>
     </row>
   </sheetData>
